--- a/Benchmark Management/Config.xlsx
+++ b/Benchmark Management/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raffael\GitHub\P6_Software\Benchmark Managment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\GitHub\P6_Software\Benchmark Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18000064-E81E-4CB7-B806-B62EB477774F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7753CB-7631-47DA-B132-DB5EB4BC749F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>Number</t>
   </si>
@@ -304,8 +304,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:E9" totalsRowShown="0">
-  <autoFilter ref="A1:E9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Firmware"/>
@@ -616,7 +616,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,147 +647,94 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>7928FDBD</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
+        <v>16D87965</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>E1A6E5BF</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
+        <v>228D1458</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>DC94CD5B</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
+        <v>B6D10C96</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>A4F21E13</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
+        <v>E5B83E8E</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>EA97A00B</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
+        <v>52993E8A</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>70AAAF03</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>8E323CE7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="str">
         <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>5BEB2713</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
+        <v>6776E907</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="str">
-        <f>VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE)</f>
-        <v>E22399C0</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
+      <c r="E9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -801,19 +748,19 @@
           <x14:formula1>
             <xm:f>Constants!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B9</xm:sqref>
+          <xm:sqref>B2:B8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BED282B8-5A63-432E-8F33-CB3377B63A1C}">
           <x14:formula1>
             <xm:f>Constants!$F$2:$F$27</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:E9</xm:sqref>
+          <xm:sqref>D2:E8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE6EC81D-B64F-49DB-9E36-AE4995FCB78F}">
           <x14:formula1>
             <xm:f>Constants!$C$2:$C$54</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A9</xm:sqref>
+          <xm:sqref>A2:A8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Benchmark Management/Config.xlsx
+++ b/Benchmark Management/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raffael\GitHub\P6_Software\Benchmark Managment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\Documents\GitHub\P6_Software\Benchmark Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E849DE83-9A81-441F-8807-7733F306BB2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9CF89C-D8C8-4B21-9707-C526CEE74678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -312,7 +312,10 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -324,10 +327,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -351,15 +351,15 @@
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Firmware"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Dev ID" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Dev ID" dataDxfId="6">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Group ID"/>
-    <tableColumn id="5" xr3:uid="{BF33E156-0868-4FE7-AEB6-BAA4A1A6CAB8}" name="Node Id" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{BF33E156-0868-4FE7-AEB6-BAA4A1A6CAB8}" name="Node Id" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{00047FA1-B776-4161-9A5E-61CD291BFDE7}" name="Ack"/>
     <tableColumn id="7" xr3:uid="{1127329E-899C-4626-93A4-7D09EBA3B157}" name="Add Payload Len"/>
     <tableColumn id="8" xr3:uid="{FCC38A83-0D45-4F8E-B2DD-7BAAAA942F45}" name="DST_Node_1"/>
-    <tableColumn id="12" xr3:uid="{87E21627-A692-445A-A2CA-36DDBC7DA312}" name="DST_MAC_1" dataDxfId="1">
+    <tableColumn id="12" xr3:uid="{87E21627-A692-445A-A2CA-36DDBC7DA312}" name="DST_MAC_1" dataDxfId="4">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{2A65C8C5-CF0D-4044-9EF1-81065B5FA9F5}" name="DST_Node_2"/>
@@ -389,8 +389,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="C1:D54" totalsRowShown="0">
   <autoFilter ref="C1:D54" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Number" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Device ID" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Number" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Device ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -671,27 +671,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D21:D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +732,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>60</v>
       </c>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>61</v>
       </c>
@@ -847,17 +847,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -871,7 +871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -913,7 +913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -927,7 +927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -941,7 +941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>8</v>
       </c>
@@ -980,7 +980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>9</v>
       </c>
@@ -991,7 +991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>10</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>11</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>12</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>13</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>14</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>15</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>16</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>17</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>18</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>19</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>20</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>21</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>22</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>23</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>24</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>25</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
         <v>26</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>27</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>28</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>29</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <v>30</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>31</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>32</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <v>33</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>62688236</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
         <v>34</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>35</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <v>36</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
         <v>37</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
         <v>38</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="1">
         <v>39</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <v>40</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <v>41</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
         <v>42</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
         <v>43</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" s="1">
         <v>44</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" s="1">
         <v>45</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
         <v>46</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
         <v>47</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="1">
         <v>48</v>
       </c>
@@ -1354,15 +1354,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="1">
         <v>49</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="1">
         <v>50</v>
       </c>
@@ -1370,15 +1370,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="1">
         <v>51</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" s="1">
         <v>60</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" s="1">
         <v>61</v>
       </c>

--- a/Benchmark Management/Config.xlsx
+++ b/Benchmark Management/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\Documents\GitHub\P6_Software\Benchmark Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9CF89C-D8C8-4B21-9707-C526CEE74678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22A3F5E-67AA-46E0-8080-07ACD42B2CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>Number</t>
   </si>
@@ -346,8 +346,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:M3" totalsRowShown="0">
-  <autoFilter ref="A1:M3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:M7" totalsRowShown="0">
+  <autoFilter ref="A1:M7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Firmware"/>
@@ -669,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,37 +734,40 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C2" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>13D67795</v>
+        <v>7928FDBD</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>120</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
       </c>
       <c r="I2" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>7928FDBD</v>
-      </c>
-      <c r="K2">
+        <v>E1A6E5BF</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+        <v>A7A6C5A8</v>
       </c>
       <c r="M2">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
@@ -773,39 +776,186 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C3" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>F5EA067B</v>
+        <v>E1A6E5BF</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="str">
+      <c r="I3">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>7928FDBD</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M3">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>A7A6C5A8</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>8E323CE7</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>7C92D6F4</v>
+      </c>
+      <c r="K5" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>7C92D6F4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>DC94CD5B</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>A7A6C5A8</v>
+      </c>
+      <c r="K7" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -823,19 +973,19 @@
           <x14:formula1>
             <xm:f>Constants!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3</xm:sqref>
+          <xm:sqref>B2:B7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BED282B8-5A63-432E-8F33-CB3377B63A1C}">
           <x14:formula1>
             <xm:f>Constants!$F$2:$F$27</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:E3</xm:sqref>
+          <xm:sqref>D2:E7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE6EC81D-B64F-49DB-9E36-AE4995FCB78F}">
           <x14:formula1>
             <xm:f>Constants!$C$2:$C$54</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A3 H2:H3 J2:J3 L2:L3</xm:sqref>
+          <xm:sqref>A2:A7 H2:H7 J2:J7 L2:L7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -847,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Benchmark Management/Config.xlsx
+++ b/Benchmark Management/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\Documents\GitHub\P6_Software\Benchmark Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22A3F5E-67AA-46E0-8080-07ACD42B2CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4243F74D-3910-465E-A090-1EE60D6272E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>Number</t>
   </si>
@@ -346,8 +346,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:M7" totalsRowShown="0">
-  <autoFilter ref="A1:M7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:M5" totalsRowShown="0">
+  <autoFilter ref="A1:M5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Firmware"/>
@@ -669,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,10 +744,10 @@
         <v>7928FDBD</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -762,12 +762,9 @@
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>E1A6E5BF</v>
       </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2" t="str">
+      <c r="K2">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>A7A6C5A8</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
@@ -786,10 +783,10 @@
         <v>E1A6E5BF</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -822,10 +819,10 @@
         <v>A7A6C5A8</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -858,10 +855,10 @@
         <v>8E323CE7</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -870,92 +867,17 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I5" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>7C92D6F4</v>
+        <v>A7A6C5A8</v>
       </c>
       <c r="K5" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M5" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>7C92D6F4</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>DC94CD5B</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>A7A6C5A8</v>
-      </c>
-      <c r="K7" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -973,19 +895,19 @@
           <x14:formula1>
             <xm:f>Constants!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B7</xm:sqref>
+          <xm:sqref>B2:B5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BED282B8-5A63-432E-8F33-CB3377B63A1C}">
           <x14:formula1>
             <xm:f>Constants!$F$2:$F$27</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:E7</xm:sqref>
+          <xm:sqref>D2:E5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE6EC81D-B64F-49DB-9E36-AE4995FCB78F}">
           <x14:formula1>
             <xm:f>Constants!$C$2:$C$54</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A7 H2:H7 J2:J7 L2:L7</xm:sqref>
+          <xm:sqref>A2:A5 H2:H5 J2:J5 L2:L5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Benchmark Management/Config.xlsx
+++ b/Benchmark Management/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raffael\GitHub\P6_Software\Benchmark Managment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raffael\GitHub\P6_Software\Benchmark Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E849DE83-9A81-441F-8807-7733F306BB2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1593490D-B8C1-4203-8DFD-7C0ECFF0B71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -312,7 +312,10 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -324,10 +327,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -351,15 +351,15 @@
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Firmware"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Dev ID" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Dev ID" dataDxfId="6">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Group ID"/>
-    <tableColumn id="5" xr3:uid="{BF33E156-0868-4FE7-AEB6-BAA4A1A6CAB8}" name="Node Id" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{BF33E156-0868-4FE7-AEB6-BAA4A1A6CAB8}" name="Node Id" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{00047FA1-B776-4161-9A5E-61CD291BFDE7}" name="Ack"/>
     <tableColumn id="7" xr3:uid="{1127329E-899C-4626-93A4-7D09EBA3B157}" name="Add Payload Len"/>
     <tableColumn id="8" xr3:uid="{FCC38A83-0D45-4F8E-B2DD-7BAAAA942F45}" name="DST_Node_1"/>
-    <tableColumn id="12" xr3:uid="{87E21627-A692-445A-A2CA-36DDBC7DA312}" name="DST_MAC_1" dataDxfId="1">
+    <tableColumn id="12" xr3:uid="{87E21627-A692-445A-A2CA-36DDBC7DA312}" name="DST_MAC_1" dataDxfId="4">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{2A65C8C5-CF0D-4044-9EF1-81065B5FA9F5}" name="DST_Node_2"/>
@@ -389,8 +389,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="C1:D54" totalsRowShown="0">
   <autoFilter ref="C1:D54" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Number" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Device ID" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Number" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Device ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -672,7 +672,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D21:D22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Benchmark Management/Config.xlsx
+++ b/Benchmark Management/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raffael\GitHub\P6_Software\Benchmark Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1593490D-B8C1-4203-8DFD-7C0ECFF0B71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE641181-2BCC-4A46-8DE6-0F0BB86FEA95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
   <si>
     <t>Number</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>5BEB2713</t>
-  </si>
-  <si>
-    <t>E22399C0</t>
   </si>
   <si>
     <t>A0469D49</t>
@@ -346,8 +343,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:M3" totalsRowShown="0">
-  <autoFilter ref="A1:M3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:M51" totalsRowShown="0">
+  <autoFilter ref="A1:M51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Firmware"/>
@@ -386,8 +383,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="C1:D54" totalsRowShown="0">
-  <autoFilter ref="C1:D54" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="C1:D53" totalsRowShown="0">
+  <autoFilter ref="C1:D53" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Number" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Device ID" dataDxfId="0"/>
@@ -669,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,62 +702,59 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>72</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>69</v>
-      </c>
-      <c r="L1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
       <c r="C2" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>13D67795</v>
+        <v>7928FDBD</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>120</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>7928FDBD</v>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="K2">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -773,39 +767,1764 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>F5EA067B</v>
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>E1A6E5BF</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>A7A6C5A8</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>9A6E0972</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>8E323CE7</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>E2F74711</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>7C92D6F4</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>4BDDEB69</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>DC94CD5B</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>228D1458</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>B6D10C96</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>A4F21E13</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>E5B83E8E</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>52993E8A</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>6776E907</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>C6D6D775</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" s="4">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>D9D77E84</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" s="4">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>601D5B66</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" s="4">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>FAFE496D</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" s="4">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>DE9629D5</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" s="4">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>EFF7BF27</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22" s="4">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>8C9887C1</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23" s="4">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>DA9B7CC4</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24" s="4">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>2BA3A564</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25" s="4">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>11047935</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26" s="4">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>94AD4551</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>147FFADA</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>6C84AD40</v>
+      </c>
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>6299C37B</v>
+      </c>
+      <c r="D30">
+        <v>22</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>BCBAD38A</v>
+      </c>
+      <c r="D31">
+        <v>21</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>9D0ECC89</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>BA07263F</v>
+      </c>
+      <c r="D33">
+        <v>19</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>62688236</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>D64BDCA0</v>
+      </c>
+      <c r="D35">
+        <v>17</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>769E3C69</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>DE1B14CB</v>
+      </c>
+      <c r="D37">
+        <v>15</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>E2E0BBA6</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>B3FAF1BB</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>CC710FAF</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>8452CCB8</v>
+      </c>
+      <c r="D41">
+        <v>11</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>701A30B7</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>B18D9ED9</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>29F650C1</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>4D07D85A</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>16D87965</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>EA97A00B</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>70AAAF03</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>5BEB2713</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>A2068169</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>A0469D49</v>
+      </c>
+      <c r="D51">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>7928FDBD</v>
-      </c>
-      <c r="K3">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -823,19 +2542,19 @@
           <x14:formula1>
             <xm:f>Constants!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3</xm:sqref>
+          <xm:sqref>B2:B51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BED282B8-5A63-432E-8F33-CB3377B63A1C}">
           <x14:formula1>
             <xm:f>Constants!$F$2:$F$27</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:E3</xm:sqref>
+          <xm:sqref>F27:G51 D2:E51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE6EC81D-B64F-49DB-9E36-AE4995FCB78F}">
           <x14:formula1>
-            <xm:f>Constants!$C$2:$C$54</xm:f>
+            <xm:f>Constants!$C$2:$C$53</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A3 H2:H3 J2:J3 L2:L3</xm:sqref>
+          <xm:sqref>A2:A51 L2:L51 J2:J51 H2:H51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -845,10 +2564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +2592,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -887,7 +2606,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -901,7 +2620,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -915,7 +2634,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -929,7 +2648,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -943,7 +2662,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -957,7 +2676,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1359,7 +3078,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.25">
@@ -1367,31 +3086,23 @@
         <v>50</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="1">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="1">
-        <v>61</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Benchmark Management/Config.xlsx
+++ b/Benchmark Management/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raffael\GitHub\P6_Software\Benchmark Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\GitHub\P6_Software\Benchmark Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE641181-2BCC-4A46-8DE6-0F0BB86FEA95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438E83AD-CD0B-4A73-B5D2-9453AB6DF1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
   <si>
     <t>Number</t>
   </si>
@@ -204,15 +204,6 @@
     <t>A2068169</t>
   </si>
   <si>
-    <t>master_dfu_package.zip</t>
-  </si>
-  <si>
-    <t>client_dfu_package.zip</t>
-  </si>
-  <si>
-    <t>server_dfu_package.zip</t>
-  </si>
-  <si>
     <t>client_ble_dfu_package.zip</t>
   </si>
   <si>
@@ -250,6 +241,18 @@
   </si>
   <si>
     <t>DST_Node_3</t>
+  </si>
+  <si>
+    <t>ot_master_dfu_package.zip</t>
+  </si>
+  <si>
+    <t>ot_client_dfu_package.zip</t>
+  </si>
+  <si>
+    <t>ot_server_dfu_package.zip</t>
+  </si>
+  <si>
+    <t>ot_master_dfu_package_10056.zip</t>
   </si>
 </sst>
 </file>
@@ -373,8 +376,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:A8" totalsRowShown="0">
-  <autoFilter ref="A1:A8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:A9" totalsRowShown="0">
+  <autoFilter ref="A1:A9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Firmware Selection"/>
   </tableColumns>
@@ -668,27 +671,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -702,39 +705,39 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -765,12 +768,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -801,12 +804,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -837,12 +840,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -873,12 +876,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -909,12 +912,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -945,12 +948,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -981,12 +984,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1017,12 +1020,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1053,12 +1056,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1089,12 +1092,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1125,12 +1128,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1161,12 +1164,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1197,12 +1200,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C15" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1233,12 +1236,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C16" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1269,12 +1272,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1305,12 +1308,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1341,12 +1344,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1377,12 +1380,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1413,12 +1416,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1449,12 +1452,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1485,12 +1488,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1521,12 +1524,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1557,12 +1560,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1593,12 +1596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1629,12 +1632,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C27" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1665,12 +1668,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1701,12 +1704,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1737,12 +1740,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1773,12 +1776,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1809,12 +1812,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C32" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1845,12 +1848,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C33" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1881,12 +1884,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C34" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1917,12 +1920,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C35" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1953,12 +1956,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C36" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1989,12 +1992,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C37" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2025,12 +2028,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C38" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2061,12 +2064,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C39" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2097,12 +2100,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C40" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2133,12 +2136,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C41" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2169,12 +2172,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C42" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2205,12 +2208,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C43" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2241,12 +2244,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C44" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2277,12 +2280,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C45" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2313,12 +2316,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C46" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2349,12 +2352,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C47" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2385,12 +2388,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C48" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2421,12 +2424,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C49" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2457,12 +2460,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C50" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2493,12 +2496,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C51" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2566,17 +2569,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2590,9 +2593,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -2604,9 +2607,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -2618,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -2646,9 +2649,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -2660,9 +2663,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -2674,9 +2677,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -2688,7 +2691,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
       <c r="C9" s="1">
         <v>8</v>
       </c>
@@ -2699,7 +2705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>9</v>
       </c>
@@ -2710,7 +2716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>10</v>
       </c>
@@ -2721,7 +2727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>11</v>
       </c>
@@ -2732,7 +2738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>12</v>
       </c>
@@ -2743,7 +2749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>13</v>
       </c>
@@ -2754,7 +2760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>14</v>
       </c>
@@ -2765,7 +2771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>15</v>
       </c>
@@ -2776,7 +2782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>16</v>
       </c>
@@ -2787,7 +2793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>17</v>
       </c>
@@ -2798,7 +2804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>18</v>
       </c>
@@ -2809,7 +2815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>19</v>
       </c>
@@ -2820,7 +2826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>20</v>
       </c>
@@ -2831,7 +2837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>21</v>
       </c>
@@ -2842,7 +2848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>22</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>23</v>
       </c>
@@ -2864,7 +2870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>24</v>
       </c>
@@ -2875,7 +2881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>25</v>
       </c>
@@ -2886,7 +2892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
         <v>26</v>
       </c>
@@ -2897,7 +2903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>27</v>
       </c>
@@ -2905,7 +2911,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>28</v>
       </c>
@@ -2913,7 +2919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>29</v>
       </c>
@@ -2921,7 +2927,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <v>30</v>
       </c>
@@ -2929,7 +2935,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>31</v>
       </c>
@@ -2937,7 +2943,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>32</v>
       </c>
@@ -2945,7 +2951,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <v>33</v>
       </c>
@@ -2953,7 +2959,7 @@
         <v>62688236</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
         <v>34</v>
       </c>
@@ -2961,7 +2967,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>35</v>
       </c>
@@ -2969,7 +2975,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <v>36</v>
       </c>
@@ -2977,7 +2983,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
         <v>37</v>
       </c>
@@ -2985,7 +2991,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
         <v>38</v>
       </c>
@@ -2993,7 +2999,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="1">
         <v>39</v>
       </c>
@@ -3001,7 +3007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <v>40</v>
       </c>
@@ -3009,7 +3015,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <v>41</v>
       </c>
@@ -3017,7 +3023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
         <v>42</v>
       </c>
@@ -3025,7 +3031,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
         <v>43</v>
       </c>
@@ -3033,7 +3039,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" s="1">
         <v>44</v>
       </c>
@@ -3041,7 +3047,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" s="1">
         <v>45</v>
       </c>
@@ -3049,7 +3055,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
         <v>46</v>
       </c>
@@ -3057,7 +3063,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
         <v>47</v>
       </c>
@@ -3065,7 +3071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="1">
         <v>48</v>
       </c>
@@ -3073,7 +3079,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="1">
         <v>49</v>
       </c>
@@ -3081,7 +3087,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="1">
         <v>50</v>
       </c>
@@ -3089,20 +3095,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="1">
         <v>60</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" s="1">
         <v>61</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Benchmark Management/Config.xlsx
+++ b/Benchmark Management/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\GitHub\P6_Software\Benchmark Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438E83AD-CD0B-4A73-B5D2-9453AB6DF1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351BAB40-2360-4C4D-A6E8-AC3F678CCAB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2540,12 +2540,12 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2A9CFBD8-98C6-47B7-83CE-7D8A4658D465}">
           <x14:formula1>
             <xm:f>Constants!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B51</xm:sqref>
+          <xm:sqref>B3:B51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BED282B8-5A63-432E-8F33-CB3377B63A1C}">
           <x14:formula1>
@@ -2559,6 +2559,12 @@
           </x14:formula1>
           <xm:sqref>A2:A51 L2:L51 J2:J51 H2:H51</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D65AA8E7-A56D-4716-9F74-FB4AD27C34AB}">
+          <x14:formula1>
+            <xm:f>Constants!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -2569,7 +2575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>

--- a/Benchmark Management/Config.xlsx
+++ b/Benchmark Management/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\GitHub\P6_Software\Benchmark Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\Documents\GitHub\P6_Software\Benchmark Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351BAB40-2360-4C4D-A6E8-AC3F678CCAB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20BA38D-9519-49F1-8203-05D954ECA7F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
   <si>
     <t>Number</t>
   </si>
@@ -346,8 +346,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:M51" totalsRowShown="0">
-  <autoFilter ref="A1:M51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:M11" totalsRowShown="0">
+  <autoFilter ref="A1:M11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Firmware"/>
@@ -669,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -809,7 +809,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -845,7 +845,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -881,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -917,17 +917,17 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>E2F74711</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -953,17 +953,17 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>7C92D6F4</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E8" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -989,17 +989,17 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>4BDDEB69</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E9" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1025,17 +1025,17 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>DC94CD5B</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E10" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1061,17 +1061,17 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>228D1458</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E11" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1088,1446 +1088,6 @@
         <v>0</v>
       </c>
       <c r="M11" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>B6D10C96</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>A4F21E13</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4">
-        <v>12</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>E5B83E8E</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14" s="4">
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>52993E8A</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15" s="4">
-        <v>14</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>6776E907</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16" s="4">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>C6D6D775</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="E17" s="4">
-        <v>16</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>D9D77E84</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-      <c r="E18" s="4">
-        <v>17</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>601D5B66</v>
-      </c>
-      <c r="D19">
-        <v>18</v>
-      </c>
-      <c r="E19" s="4">
-        <v>18</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>FAFE496D</v>
-      </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-      <c r="E20" s="4">
-        <v>19</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>DE9629D5</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21" s="4">
-        <v>20</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>EFF7BF27</v>
-      </c>
-      <c r="D22">
-        <v>21</v>
-      </c>
-      <c r="E22" s="4">
-        <v>21</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>8C9887C1</v>
-      </c>
-      <c r="D23">
-        <v>22</v>
-      </c>
-      <c r="E23" s="4">
-        <v>22</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>DA9B7CC4</v>
-      </c>
-      <c r="D24">
-        <v>23</v>
-      </c>
-      <c r="E24" s="4">
-        <v>23</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>2BA3A564</v>
-      </c>
-      <c r="D25">
-        <v>24</v>
-      </c>
-      <c r="E25" s="4">
-        <v>24</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>11047935</v>
-      </c>
-      <c r="D26">
-        <v>25</v>
-      </c>
-      <c r="E26" s="4">
-        <v>25</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>94AD4551</v>
-      </c>
-      <c r="D27">
-        <v>25</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>147FFADA</v>
-      </c>
-      <c r="D28">
-        <v>24</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>6C84AD40</v>
-      </c>
-      <c r="D29">
-        <v>23</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>6299C37B</v>
-      </c>
-      <c r="D30">
-        <v>22</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>BCBAD38A</v>
-      </c>
-      <c r="D31">
-        <v>21</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>9D0ECC89</v>
-      </c>
-      <c r="D32">
-        <v>20</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>BA07263F</v>
-      </c>
-      <c r="D33">
-        <v>19</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0</v>
-      </c>
-      <c r="I33" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>62688236</v>
-      </c>
-      <c r="D34">
-        <v>18</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>D64BDCA0</v>
-      </c>
-      <c r="D35">
-        <v>17</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>769E3C69</v>
-      </c>
-      <c r="D36">
-        <v>16</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
-      <c r="I36" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>DE1B14CB</v>
-      </c>
-      <c r="D37">
-        <v>15</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0</v>
-      </c>
-      <c r="I37" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>E2E0BBA6</v>
-      </c>
-      <c r="D38">
-        <v>14</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0</v>
-      </c>
-      <c r="I38" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>B3FAF1BB</v>
-      </c>
-      <c r="D39">
-        <v>13</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4">
-        <v>0</v>
-      </c>
-      <c r="I39" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>CC710FAF</v>
-      </c>
-      <c r="D40">
-        <v>12</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0</v>
-      </c>
-      <c r="I40" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>8452CCB8</v>
-      </c>
-      <c r="D41">
-        <v>11</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="I41" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>701A30B7</v>
-      </c>
-      <c r="D42">
-        <v>10</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0</v>
-      </c>
-      <c r="I42" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>B18D9ED9</v>
-      </c>
-      <c r="D43">
-        <v>9</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0</v>
-      </c>
-      <c r="I43" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K43" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>29F650C1</v>
-      </c>
-      <c r="D44">
-        <v>8</v>
-      </c>
-      <c r="E44" s="4">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0</v>
-      </c>
-      <c r="G44" s="4">
-        <v>0</v>
-      </c>
-      <c r="I44" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>4D07D85A</v>
-      </c>
-      <c r="D45">
-        <v>7</v>
-      </c>
-      <c r="E45" s="4">
-        <v>0</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>16D87965</v>
-      </c>
-      <c r="D46">
-        <v>6</v>
-      </c>
-      <c r="E46" s="4">
-        <v>0</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0</v>
-      </c>
-      <c r="G46" s="4">
-        <v>0</v>
-      </c>
-      <c r="I46" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K46" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>EA97A00B</v>
-      </c>
-      <c r="D47">
-        <v>5</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K47" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>70AAAF03</v>
-      </c>
-      <c r="D48">
-        <v>4</v>
-      </c>
-      <c r="E48" s="4">
-        <v>0</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>5BEB2713</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49" s="4">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K49" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>A2068169</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50" s="4">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4">
-        <v>0</v>
-      </c>
-      <c r="G50" s="4">
-        <v>0</v>
-      </c>
-      <c r="I50" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K50" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M50" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>A0469D49</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0</v>
-      </c>
-      <c r="G51" s="4">
-        <v>0</v>
-      </c>
-      <c r="I51" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K51" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -2540,30 +1100,24 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2A9CFBD8-98C6-47B7-83CE-7D8A4658D465}">
-          <x14:formula1>
-            <xm:f>Constants!$A$2:$A$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3:B51</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BED282B8-5A63-432E-8F33-CB3377B63A1C}">
           <x14:formula1>
             <xm:f>Constants!$F$2:$F$27</xm:f>
           </x14:formula1>
-          <xm:sqref>F27:G51 D2:E51</xm:sqref>
+          <xm:sqref>D2:E11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE6EC81D-B64F-49DB-9E36-AE4995FCB78F}">
           <x14:formula1>
             <xm:f>Constants!$C$2:$C$53</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A51 L2:L51 J2:J51 H2:H51</xm:sqref>
+          <xm:sqref>A2:A11 L2:L11 J2:J11 H2:H11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D65AA8E7-A56D-4716-9F74-FB4AD27C34AB}">
           <x14:formula1>
             <xm:f>Constants!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
+          <xm:sqref>B2:B11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Benchmark Management/Config.xlsx
+++ b/Benchmark Management/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\Documents\GitHub\P6_Software\Benchmark Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20BA38D-9519-49F1-8203-05D954ECA7F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3565D7-7F5B-478C-9F59-11077C28F2FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>Number</t>
   </si>
@@ -346,8 +346,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:M11" totalsRowShown="0">
-  <autoFilter ref="A1:M11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:M31" totalsRowShown="0">
+  <autoFilter ref="A1:M31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Firmware"/>
@@ -669,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,14 +734,14 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
       </c>
       <c r="C2" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>7928FDBD</v>
+        <v>B6D10C96</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -755,9 +755,12 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>8452CCB8</v>
       </c>
       <c r="K2">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -770,14 +773,14 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>E1A6E5BF</v>
+        <v>A4F21E13</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -791,9 +794,12 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="H3">
+        <v>39</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>CC710FAF</v>
       </c>
       <c r="K3" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -806,14 +812,14 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>A7A6C5A8</v>
+        <v>E5B83E8E</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -827,9 +833,12 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="I4" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="H4">
+        <v>38</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>B3FAF1BB</v>
       </c>
       <c r="K4" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -842,14 +851,14 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>9A6E0972</v>
+        <v>52993E8A</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -863,9 +872,12 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="I5" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="H5">
+        <v>37</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>E2E0BBA6</v>
       </c>
       <c r="K5" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -878,14 +890,14 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>8E323CE7</v>
+        <v>6776E907</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -899,9 +911,12 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="I6" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="H6">
+        <v>36</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>DE1B14CB</v>
       </c>
       <c r="K6" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -914,20 +929,20 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>C6D6D775</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>E2F74711</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
       <c r="E7" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -935,9 +950,12 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="I7" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="H7">
+        <v>35</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>769E3C69</v>
       </c>
       <c r="K7" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -950,20 +968,20 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>D9D77E84</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>7C92D6F4</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -971,9 +989,12 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="I8" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="H8">
+        <v>34</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>D64BDCA0</v>
       </c>
       <c r="K8" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -986,20 +1007,20 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>601D5B66</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>4BDDEB69</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1007,9 +1028,12 @@
       <c r="G9">
         <v>0</v>
       </c>
+      <c r="H9">
+        <v>33</v>
+      </c>
       <c r="I9" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+        <v>62688236</v>
       </c>
       <c r="K9" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -1022,20 +1046,20 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>FAFE496D</v>
+      </c>
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>DC94CD5B</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1043,9 +1067,12 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="I10" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>BA07263F</v>
       </c>
       <c r="K10" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -1058,36 +1085,774 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>DE9629D5</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>31</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>9D0ECC89</v>
+      </c>
+      <c r="K11" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>EFF7BF27</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>BCBAD38A</v>
+      </c>
+      <c r="K12" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>8C9887C1</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>29</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>6299C37B</v>
+      </c>
+      <c r="K13" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>DA9B7CC4</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>28</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>6C84AD40</v>
+      </c>
+      <c r="K14" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>2BA3A564</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>27</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>147FFADA</v>
+      </c>
+      <c r="K15" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>11047935</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>26</v>
+      </c>
+      <c r="I16" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>94AD4551</v>
+      </c>
+      <c r="K16" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="4" t="str">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>228D1458</v>
-      </c>
-      <c r="D11">
+      <c r="C17" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>94AD4551</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>147FFADA</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>6C84AD40</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>6299C37B</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>BCBAD38A</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>9D0ECC89</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>BA07263F</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>62688236</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>D64BDCA0</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>769E3C69</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>DE1B14CB</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>E2E0BBA6</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>B3FAF1BB</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>CC710FAF</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>8452CCB8</v>
+      </c>
+      <c r="D31">
         <v>1</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -1105,19 +1870,19 @@
           <x14:formula1>
             <xm:f>Constants!$F$2:$F$27</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:E11</xm:sqref>
+          <xm:sqref>D2:E31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE6EC81D-B64F-49DB-9E36-AE4995FCB78F}">
           <x14:formula1>
             <xm:f>Constants!$C$2:$C$53</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A11 L2:L11 J2:J11 H2:H11</xm:sqref>
+          <xm:sqref>A2:A31 L2:L31 J2:J31 H2:H31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D65AA8E7-A56D-4716-9F74-FB4AD27C34AB}">
           <x14:formula1>
             <xm:f>Constants!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B11</xm:sqref>
+          <xm:sqref>B2:B31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Benchmark Management/Config.xlsx
+++ b/Benchmark Management/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\Documents\GitHub\P6_Software\Benchmark Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raffael\GitHub\P6_Software\Benchmark Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20BA38D-9519-49F1-8203-05D954ECA7F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB080600-DF42-4AC0-9D43-2A7A31B95472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>Number</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>ot_master_dfu_package_10056.zip</t>
+  </si>
+  <si>
+    <t>Traffic Gen Mode</t>
+  </si>
+  <si>
+    <t>7E51EFCE</t>
   </si>
 </sst>
 </file>
@@ -346,9 +352,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:M11" totalsRowShown="0">
-  <autoFilter ref="A1:M11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:N11" totalsRowShown="0">
+  <autoFilter ref="A1:N11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Firmware"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Dev ID" dataDxfId="6">
@@ -358,6 +364,7 @@
     <tableColumn id="5" xr3:uid="{BF33E156-0868-4FE7-AEB6-BAA4A1A6CAB8}" name="Node Id" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{00047FA1-B776-4161-9A5E-61CD291BFDE7}" name="Ack"/>
     <tableColumn id="7" xr3:uid="{1127329E-899C-4626-93A4-7D09EBA3B157}" name="Add Payload Len"/>
+    <tableColumn id="11" xr3:uid="{58D88505-D12B-4BCA-A02C-BDAF71B0E552}" name="Traffic Gen Mode"/>
     <tableColumn id="8" xr3:uid="{FCC38A83-0D45-4F8E-B2DD-7BAAAA942F45}" name="DST_Node_1"/>
     <tableColumn id="12" xr3:uid="{87E21627-A692-445A-A2CA-36DDBC7DA312}" name="DST_MAC_1" dataDxfId="4">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</calculatedColumnFormula>
@@ -386,8 +393,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="C1:D53" totalsRowShown="0">
-  <autoFilter ref="C1:D53" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="C1:D54" totalsRowShown="0">
+  <autoFilter ref="C1:D54" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Number" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Device ID" dataDxfId="0"/>
@@ -669,29 +676,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -714,30 +722,33 @@
         <v>63</v>
       </c>
       <c r="H1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>69</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -755,20 +766,23 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -791,20 +805,23 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -827,20 +844,23 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -863,20 +883,23 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -899,20 +922,23 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="I6" s="4">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -935,20 +961,23 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="I7" s="4">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -971,20 +1000,23 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="I8" s="4">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1007,20 +1039,23 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="I9" s="4">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1043,20 +1078,23 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="I10" s="4">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1079,15 +1117,18 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="I11" s="4">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -1100,7 +1141,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BED282B8-5A63-432E-8F33-CB3377B63A1C}">
           <x14:formula1>
             <xm:f>Constants!$F$2:$F$27</xm:f>
@@ -1111,13 +1152,19 @@
           <x14:formula1>
             <xm:f>Constants!$C$2:$C$53</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A11 L2:L11 J2:J11 H2:H11</xm:sqref>
+          <xm:sqref>I2:I11 M2:M11 K2:K11 A3:A11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D65AA8E7-A56D-4716-9F74-FB4AD27C34AB}">
           <x14:formula1>
             <xm:f>Constants!$A$2:$A$9</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA2E4121-7308-45FC-BC93-32FA3F0E65BD}">
+          <x14:formula1>
+            <xm:f>Constants!$C$2:$C$54</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1127,19 +1174,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1153,7 +1200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1167,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1181,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1195,7 +1242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1209,7 +1256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1223,7 +1270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1237,7 +1284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1251,7 +1298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -1265,7 +1312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>9</v>
       </c>
@@ -1276,7 +1323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>10</v>
       </c>
@@ -1287,7 +1334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>11</v>
       </c>
@@ -1298,7 +1345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>12</v>
       </c>
@@ -1309,7 +1356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>13</v>
       </c>
@@ -1320,7 +1367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>14</v>
       </c>
@@ -1331,7 +1378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>15</v>
       </c>
@@ -1342,7 +1389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>16</v>
       </c>
@@ -1353,7 +1400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>17</v>
       </c>
@@ -1364,7 +1411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>18</v>
       </c>
@@ -1375,7 +1422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>19</v>
       </c>
@@ -1386,7 +1433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>20</v>
       </c>
@@ -1397,7 +1444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>21</v>
       </c>
@@ -1408,7 +1455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>22</v>
       </c>
@@ -1419,7 +1466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>23</v>
       </c>
@@ -1430,7 +1477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>24</v>
       </c>
@@ -1441,7 +1488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>25</v>
       </c>
@@ -1452,7 +1499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
         <v>26</v>
       </c>
@@ -1463,7 +1510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <v>27</v>
       </c>
@@ -1471,7 +1518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>28</v>
       </c>
@@ -1479,7 +1526,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
         <v>29</v>
       </c>
@@ -1487,7 +1534,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <v>30</v>
       </c>
@@ -1495,7 +1542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <v>31</v>
       </c>
@@ -1503,7 +1550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <v>32</v>
       </c>
@@ -1511,7 +1558,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <v>33</v>
       </c>
@@ -1519,7 +1566,7 @@
         <v>62688236</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>34</v>
       </c>
@@ -1527,7 +1574,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>35</v>
       </c>
@@ -1535,7 +1582,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>36</v>
       </c>
@@ -1543,7 +1590,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
         <v>37</v>
       </c>
@@ -1551,7 +1598,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
         <v>38</v>
       </c>
@@ -1559,7 +1606,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
         <v>39</v>
       </c>
@@ -1567,7 +1614,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" s="1">
         <v>40</v>
       </c>
@@ -1575,7 +1622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" s="1">
         <v>41</v>
       </c>
@@ -1583,7 +1630,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" s="1">
         <v>42</v>
       </c>
@@ -1591,7 +1638,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" s="1">
         <v>43</v>
       </c>
@@ -1599,7 +1646,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" s="1">
         <v>44</v>
       </c>
@@ -1607,7 +1654,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" s="1">
         <v>45</v>
       </c>
@@ -1615,7 +1662,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" s="1">
         <v>46</v>
       </c>
@@ -1623,7 +1670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" s="1">
         <v>47</v>
       </c>
@@ -1631,7 +1678,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="1">
         <v>48</v>
       </c>
@@ -1639,7 +1686,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="1">
         <v>49</v>
       </c>
@@ -1647,7 +1694,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="1">
         <v>50</v>
       </c>
@@ -1655,7 +1702,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="1">
         <v>60</v>
       </c>
@@ -1663,12 +1710,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="1">
         <v>61</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="1">
+        <v>62</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Benchmark Management/Config.xlsx
+++ b/Benchmark Management/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raffael\GitHub\P6_Software\Benchmark Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\Documents\GitHub\P6_Software\Benchmark Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB080600-DF42-4AC0-9D43-2A7A31B95472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1312B2-AF82-452E-AF25-ECD6755C9BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
   <si>
     <t>Number</t>
   </si>
@@ -259,6 +259,21 @@
   </si>
   <si>
     <t>7E51EFCE</t>
+  </si>
+  <si>
+    <t>7A2C3E11</t>
+  </si>
+  <si>
+    <t>3C939F93</t>
+  </si>
+  <si>
+    <t>58B72517</t>
+  </si>
+  <si>
+    <t>F0F892B4</t>
+  </si>
+  <si>
+    <t>E22399C0</t>
   </si>
 </sst>
 </file>
@@ -393,8 +408,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="C1:D54" totalsRowShown="0">
-  <autoFilter ref="C1:D54" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="C1:D59" totalsRowShown="0">
+  <autoFilter ref="C1:D59" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D59">
+    <sortCondition ref="C1:C59"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Number" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Device ID" dataDxfId="0"/>
@@ -679,27 +697,27 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +761,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -782,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -821,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -860,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -899,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -938,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -977,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1016,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1055,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1094,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1141,18 +1159,12 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BED282B8-5A63-432E-8F33-CB3377B63A1C}">
           <x14:formula1>
             <xm:f>Constants!$F$2:$F$27</xm:f>
           </x14:formula1>
           <xm:sqref>D2:E11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE6EC81D-B64F-49DB-9E36-AE4995FCB78F}">
-          <x14:formula1>
-            <xm:f>Constants!$C$2:$C$53</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I11 M2:M11 K2:K11 A3:A11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D65AA8E7-A56D-4716-9F74-FB4AD27C34AB}">
           <x14:formula1>
@@ -1162,9 +1174,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA2E4121-7308-45FC-BC93-32FA3F0E65BD}">
           <x14:formula1>
-            <xm:f>Constants!$C$2:$C$54</xm:f>
+            <xm:f>Constants!$C$2:$C$59</xm:f>
           </x14:formula1>
-          <xm:sqref>A2</xm:sqref>
+          <xm:sqref>A2:A11 I2:I11 K2:K11 M2:M11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1174,19 +1186,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1200,7 +1212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1214,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1228,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1242,7 +1254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1256,7 +1268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1270,7 +1282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1284,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1298,7 +1310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -1312,7 +1324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>9</v>
       </c>
@@ -1323,7 +1335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>10</v>
       </c>
@@ -1334,7 +1346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>11</v>
       </c>
@@ -1345,7 +1357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>12</v>
       </c>
@@ -1356,7 +1368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>13</v>
       </c>
@@ -1367,7 +1379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>14</v>
       </c>
@@ -1378,7 +1390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>15</v>
       </c>
@@ -1389,7 +1401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>16</v>
       </c>
@@ -1400,7 +1412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>17</v>
       </c>
@@ -1411,7 +1423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>18</v>
       </c>
@@ -1422,7 +1434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>19</v>
       </c>
@@ -1433,7 +1445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>20</v>
       </c>
@@ -1444,7 +1456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>21</v>
       </c>
@@ -1455,7 +1467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>22</v>
       </c>
@@ -1466,7 +1478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>23</v>
       </c>
@@ -1477,7 +1489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>24</v>
       </c>
@@ -1488,7 +1500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>25</v>
       </c>
@@ -1499,7 +1511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
         <v>26</v>
       </c>
@@ -1510,7 +1522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>27</v>
       </c>
@@ -1518,7 +1530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>28</v>
       </c>
@@ -1526,7 +1538,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>29</v>
       </c>
@@ -1534,7 +1546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <v>30</v>
       </c>
@@ -1542,7 +1554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>31</v>
       </c>
@@ -1550,7 +1562,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>32</v>
       </c>
@@ -1558,7 +1570,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <v>33</v>
       </c>
@@ -1566,7 +1578,7 @@
         <v>62688236</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
         <v>34</v>
       </c>
@@ -1574,7 +1586,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>35</v>
       </c>
@@ -1582,7 +1594,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <v>36</v>
       </c>
@@ -1590,7 +1602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
         <v>37</v>
       </c>
@@ -1598,7 +1610,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
         <v>38</v>
       </c>
@@ -1606,7 +1618,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="1">
         <v>39</v>
       </c>
@@ -1614,7 +1626,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <v>40</v>
       </c>
@@ -1622,7 +1634,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <v>41</v>
       </c>
@@ -1630,7 +1642,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
         <v>42</v>
       </c>
@@ -1638,7 +1650,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
         <v>43</v>
       </c>
@@ -1646,7 +1658,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" s="1">
         <v>44</v>
       </c>
@@ -1654,7 +1666,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" s="1">
         <v>45</v>
       </c>
@@ -1662,7 +1674,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
         <v>46</v>
       </c>
@@ -1670,7 +1682,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
         <v>47</v>
       </c>
@@ -1678,7 +1690,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="1">
         <v>48</v>
       </c>
@@ -1686,7 +1698,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="1">
         <v>49</v>
       </c>
@@ -1694,7 +1706,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="1">
         <v>50</v>
       </c>
@@ -1702,27 +1714,67 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="1">
+        <v>51</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C53" s="1">
+        <v>52</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C54" s="1">
+        <v>53</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C55" s="1">
+        <v>54</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C56" s="1">
+        <v>55</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C57" s="1">
         <v>60</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="1">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C58" s="1">
         <v>61</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="1">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C59" s="1">
         <v>62</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>75</v>
       </c>
     </row>

--- a/Benchmark Management/Config.xlsx
+++ b/Benchmark Management/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\Documents\GitHub\P6_Software\Benchmark Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raffael\GitHub\P6_Software\Benchmark Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1312B2-AF82-452E-AF25-ECD6755C9BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9690F3B-588D-4C2D-A666-F07A77C96F61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
   <si>
     <t>Number</t>
   </si>
@@ -367,8 +367,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:N11" totalsRowShown="0">
-  <autoFilter ref="A1:N11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:N26" totalsRowShown="0">
+  <autoFilter ref="A1:N26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Firmware"/>
@@ -694,30 +694,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -761,16 +761,16 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C2" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>7928FDBD</v>
+        <v>A0469D49</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -800,16 +800,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>E1A6E5BF</v>
+        <v>A2068169</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -839,16 +839,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>A7A6C5A8</v>
+        <v>5BEB2713</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -878,16 +878,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>9A6E0972</v>
+        <v>70AAAF03</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -917,16 +917,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>8E323CE7</v>
+        <v>EA97A00B</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -956,16 +956,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>E2F74711</v>
+        <v>16D87965</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -995,16 +995,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>7C92D6F4</v>
+        <v>4D07D85A</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C9" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>4BDDEB69</v>
+        <v>29F650C1</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1073,16 +1073,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C10" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>DC94CD5B</v>
+        <v>B18D9ED9</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1112,16 +1112,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>228D1458</v>
+        <v>701A30B7</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1147,6 +1147,381 @@
         <v>0</v>
       </c>
       <c r="N11" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>8452CCB8</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="J12" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>CC710FAF</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="J13" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>B3FAF1BB</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="J14" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>E2E0BBA6</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="J15" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>DE1B14CB</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="J16" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>769E3C69</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="J17" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>D64BDCA0</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="J18" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>62688236</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="J19" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>BA07263F</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="J20" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>9D0ECC89</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="J21" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>BCBAD38A</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="J22" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>6299C37B</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="J23" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>6C84AD40</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="J24" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>147FFADA</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="J25" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>94AD4551</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="J26" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -1164,19 +1539,19 @@
           <x14:formula1>
             <xm:f>Constants!$F$2:$F$27</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:E11</xm:sqref>
+          <xm:sqref>D2:E26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D65AA8E7-A56D-4716-9F74-FB4AD27C34AB}">
           <x14:formula1>
             <xm:f>Constants!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B11</xm:sqref>
+          <xm:sqref>B2:B26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA2E4121-7308-45FC-BC93-32FA3F0E65BD}">
           <x14:formula1>
             <xm:f>Constants!$C$2:$C$59</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A11 I2:I11 K2:K11 M2:M11</xm:sqref>
+          <xm:sqref>M2:M26 I2:I26 K2:K26 A2:A26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1192,13 +1567,13 @@
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1212,7 +1587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1226,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1240,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1254,7 +1629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1268,7 +1643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1282,7 +1657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1296,7 +1671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1310,7 +1685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -1324,7 +1699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>9</v>
       </c>
@@ -1335,7 +1710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>10</v>
       </c>
@@ -1346,7 +1721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>11</v>
       </c>
@@ -1357,7 +1732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>12</v>
       </c>
@@ -1368,7 +1743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>13</v>
       </c>
@@ -1379,7 +1754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>14</v>
       </c>
@@ -1390,7 +1765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>15</v>
       </c>
@@ -1401,7 +1776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>16</v>
       </c>
@@ -1412,7 +1787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>17</v>
       </c>
@@ -1423,7 +1798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>18</v>
       </c>
@@ -1434,7 +1809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>19</v>
       </c>
@@ -1445,7 +1820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>20</v>
       </c>
@@ -1456,7 +1831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>21</v>
       </c>
@@ -1467,7 +1842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>22</v>
       </c>
@@ -1478,7 +1853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>23</v>
       </c>
@@ -1489,7 +1864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>24</v>
       </c>
@@ -1500,7 +1875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>25</v>
       </c>
@@ -1511,7 +1886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
         <v>26</v>
       </c>
@@ -1522,7 +1897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <v>27</v>
       </c>
@@ -1530,7 +1905,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>28</v>
       </c>
@@ -1538,7 +1913,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
         <v>29</v>
       </c>
@@ -1546,7 +1921,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <v>30</v>
       </c>
@@ -1554,7 +1929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <v>31</v>
       </c>
@@ -1562,7 +1937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <v>32</v>
       </c>
@@ -1570,7 +1945,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <v>33</v>
       </c>
@@ -1578,7 +1953,7 @@
         <v>62688236</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>34</v>
       </c>
@@ -1586,7 +1961,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>35</v>
       </c>
@@ -1594,7 +1969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>36</v>
       </c>
@@ -1602,7 +1977,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
         <v>37</v>
       </c>
@@ -1610,7 +1985,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
         <v>38</v>
       </c>
@@ -1618,7 +1993,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
         <v>39</v>
       </c>
@@ -1626,7 +2001,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" s="1">
         <v>40</v>
       </c>
@@ -1634,7 +2009,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" s="1">
         <v>41</v>
       </c>
@@ -1642,7 +2017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" s="1">
         <v>42</v>
       </c>
@@ -1650,7 +2025,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" s="1">
         <v>43</v>
       </c>
@@ -1658,7 +2033,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" s="1">
         <v>44</v>
       </c>
@@ -1666,7 +2041,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" s="1">
         <v>45</v>
       </c>
@@ -1674,7 +2049,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" s="1">
         <v>46</v>
       </c>
@@ -1682,7 +2057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" s="1">
         <v>47</v>
       </c>
@@ -1690,7 +2065,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="1">
         <v>48</v>
       </c>
@@ -1698,7 +2073,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="1">
         <v>49</v>
       </c>
@@ -1706,7 +2081,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="1">
         <v>50</v>
       </c>
@@ -1714,7 +2089,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="1">
         <v>51</v>
       </c>
@@ -1722,7 +2097,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="1">
         <v>52</v>
       </c>
@@ -1730,7 +2105,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="1">
         <v>53</v>
       </c>
@@ -1738,7 +2113,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" s="1">
         <v>54</v>
       </c>
@@ -1746,7 +2121,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="1">
         <v>55</v>
       </c>
@@ -1754,7 +2129,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" s="1">
         <v>60</v>
       </c>
@@ -1762,7 +2137,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" s="1">
         <v>61</v>
       </c>
@@ -1770,7 +2145,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" s="1">
         <v>62</v>
       </c>

--- a/Benchmark Management/Config.xlsx
+++ b/Benchmark Management/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raffael\GitHub\P6_Software\Benchmark Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9690F3B-588D-4C2D-A666-F07A77C96F61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E87574-13E9-4964-A39E-F7BC40CCD730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
   <si>
     <t>Number</t>
   </si>
@@ -367,8 +367,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:N26" totalsRowShown="0">
-  <autoFilter ref="A1:N26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:N51" totalsRowShown="0">
+  <autoFilter ref="A1:N51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Firmware"/>
@@ -694,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,14 +763,14 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C2" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>A0469D49</v>
+        <v>7928FDBD</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -802,14 +802,14 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C3" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>A2068169</v>
+        <v>E1A6E5BF</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -841,14 +841,14 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C4" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>5BEB2713</v>
+        <v>A7A6C5A8</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -880,14 +880,14 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>70AAAF03</v>
+        <v>9A6E0972</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -919,14 +919,14 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C6" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>EA97A00B</v>
+        <v>8E323CE7</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -958,20 +958,20 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>16D87965</v>
+        <v>E2F74711</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -997,20 +997,20 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>4D07D85A</v>
+        <v>7C92D6F4</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1036,20 +1036,20 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>29F650C1</v>
+        <v>4BDDEB69</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1075,20 +1075,20 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>B18D9ED9</v>
+        <v>DC94CD5B</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1114,20 +1114,20 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>701A30B7</v>
+        <v>228D1458</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E11" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1153,16 +1153,30 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>8452CCB8</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>B6D10C96</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
       <c r="J12" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
@@ -1178,16 +1192,30 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C13" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>CC710FAF</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>A4F21E13</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="J13" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
@@ -1203,16 +1231,30 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>B3FAF1BB</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>E5B83E8E</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
       <c r="J14" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
@@ -1228,16 +1270,30 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C15" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>E2E0BBA6</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>52993E8A</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="J15" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
@@ -1253,16 +1309,30 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C16" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>DE1B14CB</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>6776E907</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
       <c r="J16" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
@@ -1278,16 +1348,30 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>769E3C69</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>C6D6D775</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
       <c r="J17" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
@@ -1303,16 +1387,30 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>D64BDCA0</v>
-      </c>
-      <c r="E18" s="4"/>
+        <v>D9D77E84</v>
+      </c>
+      <c r="D18">
+        <v>13</v>
+      </c>
+      <c r="E18" s="4">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
       <c r="J18" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
@@ -1328,16 +1426,30 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>62688236</v>
-      </c>
-      <c r="E19" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>601D5B66</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19" s="4">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
       <c r="J19" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
@@ -1353,16 +1465,30 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>BA07263F</v>
-      </c>
-      <c r="E20" s="4"/>
+        <v>FAFE496D</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20" s="4">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
       <c r="J20" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
@@ -1378,16 +1504,30 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>9D0ECC89</v>
-      </c>
-      <c r="E21" s="4"/>
+        <v>DE9629D5</v>
+      </c>
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21" s="4">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
       <c r="J21" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
@@ -1403,16 +1543,30 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>BCBAD38A</v>
-      </c>
-      <c r="E22" s="4"/>
+        <v>EFF7BF27</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="E22" s="4">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
       <c r="J22" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
@@ -1428,16 +1582,30 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>6299C37B</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>8C9887C1</v>
+      </c>
+      <c r="D23">
+        <v>19</v>
+      </c>
+      <c r="E23" s="4">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
       <c r="J23" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
@@ -1453,16 +1621,30 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>6C84AD40</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>DA9B7CC4</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24" s="4">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
       <c r="J24" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
@@ -1478,16 +1660,30 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>147FFADA</v>
-      </c>
-      <c r="E25" s="4"/>
+        <v>2BA3A564</v>
+      </c>
+      <c r="D25">
+        <v>21</v>
+      </c>
+      <c r="E25" s="4">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
       <c r="J25" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
@@ -1503,25 +1699,1014 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>11047935</v>
+      </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
+      <c r="E26" s="4">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="4" t="str">
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>94AD4551</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="J26" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="4">
+      <c r="D27">
+        <v>18</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>147FFADA</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>6C84AD40</v>
+      </c>
+      <c r="D29">
+        <v>19</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>6299C37B</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>BCBAD38A</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>9D0ECC89</v>
+      </c>
+      <c r="D32">
+        <v>18</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>BA07263F</v>
+      </c>
+      <c r="D33">
+        <v>17</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>62688236</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>D64BDCA0</v>
+      </c>
+      <c r="D35">
+        <v>16</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>769E3C69</v>
+      </c>
+      <c r="D36">
+        <v>14</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>DE1B14CB</v>
+      </c>
+      <c r="D37">
+        <v>13</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>E2E0BBA6</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>B3FAF1BB</v>
+      </c>
+      <c r="D39">
+        <v>15</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>CC710FAF</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>8452CCB8</v>
+      </c>
+      <c r="D41">
+        <v>11</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>701A30B7</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>B18D9ED9</v>
+      </c>
+      <c r="D43">
+        <v>21</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>29F650C1</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>4D07D85A</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>16D87965</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>EA97A00B</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>70AAAF03</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>5BEB2713</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>A2068169</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
+        <v>A0469D49</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="4">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -1539,19 +2724,19 @@
           <x14:formula1>
             <xm:f>Constants!$F$2:$F$27</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:E26</xm:sqref>
+          <xm:sqref>D2:E51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D65AA8E7-A56D-4716-9F74-FB4AD27C34AB}">
           <x14:formula1>
             <xm:f>Constants!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B26</xm:sqref>
+          <xm:sqref>B2:B51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA2E4121-7308-45FC-BC93-32FA3F0E65BD}">
           <x14:formula1>
             <xm:f>Constants!$C$2:$C$59</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M26 I2:I26 K2:K26 A2:A26</xm:sqref>
+          <xm:sqref>M2:M51 I2:I51 K2:K51 A2:A51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Benchmark Management/Config.xlsx
+++ b/Benchmark Management/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raffael\GitHub\P6_Software\Benchmark Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\Documents\GitHub\P6_Software\Benchmark Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E87574-13E9-4964-A39E-F7BC40CCD730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175D2CB0-6F0C-443A-95AB-0816B28FB9B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
   <si>
     <t>Number</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>D9D77E84</t>
-  </si>
-  <si>
-    <t>601D5B66</t>
   </si>
   <si>
     <t>FAFE496D</t>
@@ -369,6 +366,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:N51" totalsRowShown="0">
   <autoFilter ref="A1:N51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N51">
+    <sortCondition ref="A1:A51"/>
+  </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Firmware"/>
@@ -408,10 +408,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="C1:D59" totalsRowShown="0">
-  <autoFilter ref="C1:D59" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D59">
-    <sortCondition ref="C1:C59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="C1:D58" totalsRowShown="0">
+  <autoFilter ref="C1:D58" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D58">
+    <sortCondition ref="C1:C58"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Number" dataDxfId="1"/>
@@ -697,27 +697,27 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -731,42 +731,42 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>68</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="M1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -779,17 +779,20 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I2">
+        <v>50</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>A0469D49</v>
       </c>
       <c r="L2">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -800,12 +803,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -818,17 +821,20 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="J3" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I3">
+        <v>49</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>A2068169</v>
       </c>
       <c r="L3" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -839,12 +845,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C4" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -857,95 +863,110 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="J4" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I4">
+        <v>47</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>70AAAF03</v>
+      </c>
+      <c r="K4">
+        <v>48</v>
+      </c>
+      <c r="L4" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>5BEB2713</v>
       </c>
       <c r="N4" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>9A6E0972</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="4">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="J5" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I5">
+        <v>47</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>70AAAF03</v>
+      </c>
+      <c r="K5">
+        <v>48</v>
+      </c>
+      <c r="L5" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>5BEB2713</v>
       </c>
       <c r="N5" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C6" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>8E323CE7</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4">
         <v>5</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="J6" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I6">
+        <v>46</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>EA97A00B</v>
       </c>
       <c r="L6" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -956,35 +977,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>E2F74711</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="4">
         <v>6</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="J7" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I7">
+        <v>45</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>16D87965</v>
       </c>
       <c r="L7" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -995,35 +1019,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>7C92D6F4</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" s="4">
         <v>7</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="J8" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I8">
+        <v>46</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>EA97A00B</v>
       </c>
       <c r="L8" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -1034,35 +1061,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C9" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>4BDDEB69</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="4">
         <v>8</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="J9" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I9">
+        <v>44</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>4D07D85A</v>
       </c>
       <c r="L9" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -1073,35 +1103,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C10" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>DC94CD5B</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="4">
         <v>9</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="J10" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I10">
+        <v>43</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>29F650C1</v>
       </c>
       <c r="L10" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -1112,35 +1145,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>228D1458</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" s="4">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="J11" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I11">
+        <v>42</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>B18D9ED9</v>
       </c>
       <c r="L11" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -1151,35 +1187,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>B6D10C96</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12" s="4">
         <v>11</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="J12" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I12">
+        <v>41</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>701A30B7</v>
       </c>
       <c r="L12" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -1190,12 +1229,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1208,17 +1247,20 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="J13" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I13">
+        <v>40</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>8452CCB8</v>
       </c>
       <c r="L13" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -1229,12 +1271,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1247,33 +1289,39 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="J14" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I14">
+        <v>27</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>147FFADA</v>
+      </c>
+      <c r="K14">
+        <v>39</v>
+      </c>
+      <c r="L14" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>CC710FAF</v>
       </c>
       <c r="N14" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C15" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1286,17 +1334,20 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="J15" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I15">
+        <v>38</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>B3FAF1BB</v>
       </c>
       <c r="L15" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -1307,12 +1358,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C16" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1325,17 +1376,20 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="J16" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I16">
+        <v>37</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>E2E0BBA6</v>
       </c>
       <c r="L16" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -1346,12 +1400,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -1364,17 +1418,20 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="J17" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I17">
+        <v>36</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>DE1B14CB</v>
       </c>
       <c r="L17" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -1385,35 +1442,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>D9D77E84</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="4">
         <v>17</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="J18" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I18">
+        <v>35</v>
+      </c>
+      <c r="J18" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>769E3C69</v>
       </c>
       <c r="L18" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -1424,74 +1484,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
-        <v>601D5B66</v>
+        <v>58B72517</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" s="4">
         <v>18</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="J19" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I19">
+        <v>28</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>6C84AD40</v>
+      </c>
+      <c r="K19">
+        <v>34</v>
+      </c>
+      <c r="L19" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
+        <v>D64BDCA0</v>
       </c>
       <c r="N19" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_3]],Tabelle3[],2,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>FAFE496D</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" s="4">
         <v>19</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
+      <c r="I20">
+        <v>33</v>
+      </c>
       <c r="J20" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+        <v>62688236</v>
       </c>
       <c r="L20" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -1502,35 +1571,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>DE9629D5</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" s="4">
         <v>20</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="J21" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I21">
+        <v>32</v>
+      </c>
+      <c r="J21" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>BA07263F</v>
       </c>
       <c r="L21" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -1541,35 +1613,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>EFF7BF27</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" s="4">
         <v>21</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="J22" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I22">
+        <v>31</v>
+      </c>
+      <c r="J22" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>9D0ECC89</v>
       </c>
       <c r="L22" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -1580,35 +1655,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>8C9887C1</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" s="4">
         <v>22</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="J23" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I23">
+        <v>30</v>
+      </c>
+      <c r="J23" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>BCBAD38A</v>
       </c>
       <c r="L23" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -1619,35 +1697,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>DA9B7CC4</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" s="4">
         <v>23</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="J24" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I24">
+        <v>29</v>
+      </c>
+      <c r="J24" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>6299C37B</v>
       </c>
       <c r="L24" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -1658,35 +1739,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>2BA3A564</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" s="4">
         <v>24</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="J25" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I25">
+        <v>26</v>
+      </c>
+      <c r="J25" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>94AD4551</v>
       </c>
       <c r="L25" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -1697,35 +1781,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C26" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>11047935</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E26" s="4">
         <v>25</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="J26" s="4">
-        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
-        <v>0</v>
+      <c r="I26">
+        <v>41</v>
+      </c>
+      <c r="J26" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_1]],Tabelle3[],2,FALSE),0)</f>
+        <v>701A30B7</v>
       </c>
       <c r="L26" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[DST_Node_2]],Tabelle3[],2,FALSE),0)</f>
@@ -1736,28 +1823,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C27" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>94AD4551</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1775,28 +1862,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>147FFADA</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1814,28 +1901,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>6C84AD40</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1853,28 +1940,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>6299C37B</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1892,28 +1979,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>BCBAD38A</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1931,28 +2018,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C32" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>9D0ECC89</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1970,28 +2057,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C33" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>BA07263F</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2009,12 +2096,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C34" s="4">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2027,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2048,12 +2135,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C35" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2066,10 +2153,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2087,28 +2174,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C36" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>769E3C69</v>
       </c>
       <c r="D36">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2126,28 +2213,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C37" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>DE1B14CB</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2165,12 +2252,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C38" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2183,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2204,28 +2291,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C39" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>B3FAF1BB</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2243,28 +2330,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C40" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>CC710FAF</v>
       </c>
       <c r="D40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2282,28 +2369,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C41" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>8452CCB8</v>
       </c>
       <c r="D41">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2321,28 +2408,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C42" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>701A30B7</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2360,28 +2447,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C43" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>B18D9ED9</v>
       </c>
       <c r="D43">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2399,12 +2486,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C44" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2417,10 +2504,10 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2438,12 +2525,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C45" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2456,10 +2543,10 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2477,12 +2564,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C46" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2495,10 +2582,10 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2516,12 +2603,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C47" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2534,10 +2621,10 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2555,12 +2642,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C48" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2573,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2594,28 +2681,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C49" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
         <v>5BEB2713</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" s="4">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2633,12 +2720,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C50" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2651,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2672,12 +2759,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C51" s="4" t="str">
         <f>IFERROR(VLOOKUP(Tabelle1[[#This Row],[Number]],Tabelle3[],2,FALSE),0)</f>
@@ -2690,10 +2777,10 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2734,9 +2821,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA2E4121-7308-45FC-BC93-32FA3F0E65BD}">
           <x14:formula1>
-            <xm:f>Constants!$C$2:$C$59</xm:f>
+            <xm:f>Constants!$C$2:$C$58</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M51 I2:I51 K2:K51 A2:A51</xm:sqref>
+          <xm:sqref>M2:M51 A2:A51 K2:K51 I2:I51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2746,19 +2833,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2772,9 +2859,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -2786,9 +2873,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -2800,9 +2887,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -2814,9 +2901,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -2828,9 +2915,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -2842,9 +2929,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -2856,9 +2943,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -2870,9 +2957,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -2884,7 +2971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>9</v>
       </c>
@@ -2895,7 +2982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>10</v>
       </c>
@@ -2906,7 +2993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>11</v>
       </c>
@@ -2917,7 +3004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>12</v>
       </c>
@@ -2928,7 +3015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>13</v>
       </c>
@@ -2939,7 +3026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>14</v>
       </c>
@@ -2950,7 +3037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>15</v>
       </c>
@@ -2961,7 +3048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>16</v>
       </c>
@@ -2972,7 +3059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>17</v>
       </c>
@@ -2983,84 +3070,84 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="F19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>25</v>
       </c>
@@ -3071,66 +3158,66 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
         <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>32</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <v>33</v>
       </c>
@@ -3138,204 +3225,196 @@
         <v>62688236</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
         <v>34</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>35</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <v>36</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
         <v>37</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
         <v>38</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="1">
         <v>39</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <v>41</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
         <v>42</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
         <v>43</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" s="1">
         <v>44</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" s="1">
         <v>45</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
         <v>46</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
         <v>47</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="1">
         <v>48</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="1">
         <v>49</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="1">
         <v>50</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="1">
         <v>51</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" s="1">
         <v>52</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" s="1">
         <v>53</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" s="1">
         <v>54</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" s="1">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="1">
-        <v>62</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3346,4 +3425,246 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008756412A2A41F643978AE8AD3C541BBE" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d846559115453e2f6b6753387234d8b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4c71d916-c899-41e8-949b-6b7c34fd7f95" xmlns:ns3="64890219-e44c-4063-9b45-9a1021e0e0ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cd07ccb43ce3527b1bf0b3550b79292" ns2:_="" ns3:_="">
+    <xsd:import namespace="4c71d916-c899-41e8-949b-6b7c34fd7f95"/>
+    <xsd:import namespace="64890219-e44c-4063-9b45-9a1021e0e0ee"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c71d916-c899-41e8-949b-6b7c34fd7f95" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="64890219-e44c-4063-9b45-9a1021e0e0ee" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C00EF9F-65F6-4593-82C3-BA811F6CAD29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4c71d916-c899-41e8-949b-6b7c34fd7f95"/>
+    <ds:schemaRef ds:uri="64890219-e44c-4063-9b45-9a1021e0e0ee"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8911DAF3-AFDF-4A91-A30C-1ED991B0F6BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7845E77-020C-4A84-8D46-73C8FC424097}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>